--- a/media/load/post_price.xlsx
+++ b/media/load/post_price.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sushuhuang/Documents/code/test/mbapi/media/load/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B264EE75-D4DA-4543-ADAA-37E008030474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DABC7C8-1883-D447-BE84-2EA6A25F8BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36260" yWindow="2420" windowWidth="31520" windowHeight="24800" xr2:uid="{1729F965-DE05-FD48-B022-7A4041D6DBC8}"/>
   </bookViews>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD72A490-0D41-194A-9152-0FC390E1599D}">
   <dimension ref="A1:J244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="O218" sqref="O218"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="M160" sqref="M160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5396,7 +5396,7 @@
         <v>50</v>
       </c>
       <c r="G152">
-        <v>20.5</v>
+        <v>22.5</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -5425,7 +5425,7 @@
         <v>60</v>
       </c>
       <c r="G153">
-        <v>21.1</v>
+        <v>23.1</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -5454,7 +5454,7 @@
         <v>70</v>
       </c>
       <c r="G154">
-        <v>21.6</v>
+        <v>23.6</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -5483,7 +5483,7 @@
         <v>80</v>
       </c>
       <c r="G155">
-        <v>22.2</v>
+        <v>24.2</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -5512,7 +5512,7 @@
         <v>90</v>
       </c>
       <c r="G156">
-        <v>22.7</v>
+        <v>24.7</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -5541,7 +5541,7 @@
         <v>100</v>
       </c>
       <c r="G157">
-        <v>23.3</v>
+        <v>25.3</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -5570,7 +5570,7 @@
         <v>110</v>
       </c>
       <c r="G158">
-        <v>23.8</v>
+        <v>25.8</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -5599,7 +5599,7 @@
         <v>120</v>
       </c>
       <c r="G159">
-        <v>24.4</v>
+        <v>26.4</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>130</v>
       </c>
       <c r="G160">
-        <v>30.7</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -5657,7 +5657,7 @@
         <v>140</v>
       </c>
       <c r="G161">
-        <v>31.3</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -5686,7 +5686,7 @@
         <v>150</v>
       </c>
       <c r="G162">
-        <v>31.9</v>
+        <v>35.4</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -5715,7 +5715,7 @@
         <v>160</v>
       </c>
       <c r="G163">
-        <v>32.5</v>
+        <v>36</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -5744,7 +5744,7 @@
         <v>170</v>
       </c>
       <c r="G164">
-        <v>33</v>
+        <v>36.5</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -5773,7 +5773,7 @@
         <v>180</v>
       </c>
       <c r="G165">
-        <v>33.6</v>
+        <v>37.1</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         <v>190</v>
       </c>
       <c r="G166">
-        <v>34.1</v>
+        <v>37.6</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -5831,7 +5831,7 @@
         <v>200</v>
       </c>
       <c r="G167">
-        <v>34.700000000000003</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -5860,7 +5860,7 @@
         <v>210</v>
       </c>
       <c r="G168">
-        <v>35.200000000000003</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -5889,7 +5889,7 @@
         <v>220</v>
       </c>
       <c r="G169">
-        <v>35.799999999999997</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -5918,7 +5918,7 @@
         <v>230</v>
       </c>
       <c r="G170">
-        <v>36.299999999999997</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -5947,7 +5947,7 @@
         <v>240</v>
       </c>
       <c r="G171">
-        <v>36.9</v>
+        <v>40.4</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -5976,7 +5976,7 @@
         <v>250</v>
       </c>
       <c r="G172">
-        <v>37.4</v>
+        <v>40.9</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -6008,10 +6008,10 @@
         <v>300</v>
       </c>
       <c r="G173">
-        <v>18.36</v>
+        <v>18.5</v>
       </c>
       <c r="H173">
-        <v>27.76</v>
+        <v>25.5</v>
       </c>
       <c r="I173">
         <v>6000</v>
@@ -6040,10 +6040,10 @@
         <v>500</v>
       </c>
       <c r="G174">
-        <v>19.899999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="H174">
-        <v>27.76</v>
+        <v>25.5</v>
       </c>
       <c r="I174">
         <v>6000</v>
@@ -6072,10 +6072,10 @@
         <v>1000</v>
       </c>
       <c r="G175">
-        <v>20.38</v>
+        <v>19.5</v>
       </c>
       <c r="H175">
-        <v>27.76</v>
+        <v>25.5</v>
       </c>
       <c r="I175">
         <v>6000</v>
@@ -6392,10 +6392,10 @@
         <v>300</v>
       </c>
       <c r="G185">
-        <v>25.09</v>
+        <v>27.3</v>
       </c>
       <c r="H185">
-        <v>27.76</v>
+        <v>24</v>
       </c>
       <c r="I185">
         <v>6000</v>
@@ -6424,10 +6424,10 @@
         <v>500</v>
       </c>
       <c r="G186">
-        <v>26.83</v>
+        <v>27.3</v>
       </c>
       <c r="H186">
-        <v>27.76</v>
+        <v>24</v>
       </c>
       <c r="I186">
         <v>6000</v>
@@ -6456,10 +6456,10 @@
         <v>1000</v>
       </c>
       <c r="G187">
-        <v>27.44</v>
+        <v>29</v>
       </c>
       <c r="H187">
-        <v>27.76</v>
+        <v>24</v>
       </c>
       <c r="I187">
         <v>6000</v>
@@ -6776,7 +6776,7 @@
         <v>300</v>
       </c>
       <c r="G197">
-        <v>42.25</v>
+        <v>50.5</v>
       </c>
       <c r="H197">
         <v>27.76</v>
@@ -6808,7 +6808,7 @@
         <v>500</v>
       </c>
       <c r="G198">
-        <v>47.98</v>
+        <v>50.5</v>
       </c>
       <c r="H198">
         <v>27.76</v>
@@ -6840,7 +6840,7 @@
         <v>1000</v>
       </c>
       <c r="G199">
-        <v>61.69</v>
+        <v>72</v>
       </c>
       <c r="H199">
         <v>27.76</v>
@@ -6872,7 +6872,7 @@
         <v>2000</v>
       </c>
       <c r="G200">
-        <v>64.430000000000007</v>
+        <v>72</v>
       </c>
       <c r="H200">
         <v>27.76</v>
@@ -6904,7 +6904,7 @@
         <v>3000</v>
       </c>
       <c r="G201">
-        <v>64.400000000000006</v>
+        <v>72</v>
       </c>
       <c r="H201">
         <v>27.76</v>
@@ -6936,7 +6936,7 @@
         <v>4000</v>
       </c>
       <c r="G202">
-        <v>66.17</v>
+        <v>72</v>
       </c>
       <c r="H202">
         <v>27.76</v>
@@ -7160,10 +7160,10 @@
         <v>300</v>
       </c>
       <c r="G209">
-        <v>18.36</v>
+        <v>18.5</v>
       </c>
       <c r="H209">
-        <v>48.21</v>
+        <v>43.5</v>
       </c>
       <c r="I209">
         <v>6000</v>
@@ -7192,10 +7192,10 @@
         <v>500</v>
       </c>
       <c r="G210">
-        <v>19.899999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="H210">
-        <v>48.21</v>
+        <v>43.5</v>
       </c>
       <c r="I210">
         <v>6000</v>
@@ -7224,10 +7224,10 @@
         <v>1000</v>
       </c>
       <c r="G211">
-        <v>20.38</v>
+        <v>19.5</v>
       </c>
       <c r="H211">
-        <v>48.21</v>
+        <v>43.5</v>
       </c>
       <c r="I211">
         <v>6000</v>
@@ -7544,10 +7544,10 @@
         <v>300</v>
       </c>
       <c r="G221">
-        <v>25.09</v>
+        <v>27.3</v>
       </c>
       <c r="H221">
-        <v>48.21</v>
+        <v>42.5</v>
       </c>
       <c r="I221">
         <v>6000</v>
@@ -7576,10 +7576,10 @@
         <v>500</v>
       </c>
       <c r="G222">
-        <v>26.83</v>
+        <v>27.3</v>
       </c>
       <c r="H222">
-        <v>48.21</v>
+        <v>42.5</v>
       </c>
       <c r="I222">
         <v>6000</v>
@@ -7608,10 +7608,10 @@
         <v>1000</v>
       </c>
       <c r="G223">
-        <v>27.44</v>
+        <v>29</v>
       </c>
       <c r="H223">
-        <v>48.21</v>
+        <v>42.5</v>
       </c>
       <c r="I223">
         <v>6000</v>
@@ -7928,10 +7928,10 @@
         <v>300</v>
       </c>
       <c r="G233">
-        <v>42.25</v>
+        <v>50.5</v>
       </c>
       <c r="H233">
-        <v>48.21</v>
+        <v>41.5</v>
       </c>
       <c r="I233">
         <v>6000</v>
@@ -7960,10 +7960,10 @@
         <v>500</v>
       </c>
       <c r="G234">
-        <v>47.98</v>
+        <v>50.5</v>
       </c>
       <c r="H234">
-        <v>48.21</v>
+        <v>41.5</v>
       </c>
       <c r="I234">
         <v>6000</v>
@@ -7992,10 +7992,10 @@
         <v>1000</v>
       </c>
       <c r="G235">
-        <v>61.69</v>
+        <v>72</v>
       </c>
       <c r="H235">
-        <v>48.21</v>
+        <v>42.5</v>
       </c>
       <c r="I235">
         <v>6000</v>
@@ -8024,7 +8024,7 @@
         <v>2000</v>
       </c>
       <c r="G236">
-        <v>64.430000000000007</v>
+        <v>72</v>
       </c>
       <c r="H236">
         <v>48.21</v>
@@ -8056,7 +8056,7 @@
         <v>3000</v>
       </c>
       <c r="G237">
-        <v>64.400000000000006</v>
+        <v>72</v>
       </c>
       <c r="H237">
         <v>48.21</v>
@@ -8088,7 +8088,7 @@
         <v>4000</v>
       </c>
       <c r="G238">
-        <v>66.17</v>
+        <v>72</v>
       </c>
       <c r="H238">
         <v>48.21</v>
